--- a/doc/허팔만_업무일지.xlsx
+++ b/doc/허팔만_업무일지.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\aicc-dev\aicc\aicc-chat\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8B516C-1713-46FD-A6C4-6DA74A9745E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF16D75E-DB60-426D-B3E8-1BD9D3018349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEC7F1D9-DAA8-440B-90E6-4D2B4B512AE2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{AEC7F1D9-DAA8-440B-90E6-4D2B4B512AE2}"/>
   </bookViews>
   <sheets>
-    <sheet name="202601" sheetId="1" r:id="rId1"/>
-    <sheet name="업무보고" sheetId="2" r:id="rId2"/>
+    <sheet name="달력202601" sheetId="1" r:id="rId1"/>
+    <sheet name="주간업무보고" sheetId="2" r:id="rId2"/>
     <sheet name="관련API(조사중)" sheetId="3" r:id="rId3"/>
     <sheet name="AICC-CHAT 모델" sheetId="4" r:id="rId4"/>
     <sheet name="AICC-CHAT 메시지" sheetId="5" r:id="rId5"/>
@@ -62,30 +62,8 @@
 </comments>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="172">
   <si>
     <t>일 SUN 日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -893,6 +871,46 @@
     <t>전체 개발 일수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2026-02.02- ~ 2026-02.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. CS(고객) 채팅상담 API 개발
+- 로그인(http)
+- 상담시작(http,ws)
+- 로그아웃
+- 메시지전송(ws)
+- 상담종료
+- 상담원연결
+- 상담원연결취소
+- 대기상담원조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제
+일수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. 고객용 SAMPLE 화면 개발(테스트 UI 보완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. 상담사용 SAMPLE 화면 개발(테스트 UI 보완)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">. CC(상담원) 채팅상담 API 개발
+- 로그인(http)
+- 로그아웃
+- 고객방연결
+- 고객방퇴장(상담종료)
+- 메시지전송(ws)
+- 고객방목록
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -903,7 +921,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\ &quot;년&quot;\ m\ &quot;월&quot;"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,13 +1042,6 @@
       <name val="D2Coding"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1227,7 +1238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1336,14 +1347,32 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1659,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1411F103-AD59-4611-A9C5-1553168A5DA6}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1671,9 +1700,10 @@
     <col min="3" max="7" width="32.625" customWidth="1"/>
     <col min="8" max="8" width="24.625" customWidth="1"/>
     <col min="9" max="9" width="5.375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1685,7 +1715,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -1711,12 +1741,8 @@
       <c r="K2" t="s">
         <v>165</v>
       </c>
-      <c r="L2" s="37" t="e" cm="1">
-        <f t="array" ref="L2">COUNT(C7:G7) + count</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="3">
         <v>46019</v>
@@ -1745,8 +1771,11 @@
         <f t="shared" si="0"/>
         <v>46025</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1756,7 +1785,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="4">
         <f>H3+1</f>
@@ -1787,7 +1816,7 @@
         <v>46032</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1797,7 +1826,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4">
         <f>H5+1</f>
@@ -1830,12 +1859,12 @@
       <c r="I7" s="23">
         <v>5</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="36">
         <f>I7/$I$25</f>
         <v>0.15625</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11" t="s">
@@ -1858,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4">
         <f>H7+1</f>
@@ -1891,12 +1920,12 @@
       <c r="I9" s="23">
         <v>5</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="36">
         <f>SUM($I$7:I9)/$I$25</f>
         <v>0.3125</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
       <c r="C10" s="16" t="s">
@@ -1917,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4">
         <f>H9+1</f>
@@ -1950,12 +1979,12 @@
       <c r="I11" s="23">
         <v>5</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="36">
         <f>SUM($I$7:I11)/$I$25</f>
         <v>0.46875</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1968,12 +1997,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I13" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1987,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>0</v>
       </c>
@@ -2013,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <f>H11+1</f>
         <v>46054</v>
@@ -2045,7 +2074,7 @@
       <c r="I16" s="23">
         <v>5</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="36">
         <f>SUM($I$7:I16)/$I$25</f>
         <v>0.625</v>
       </c>
@@ -2094,7 +2123,7 @@
       <c r="I18" s="23">
         <v>5</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="36">
         <f>SUM($I$7:I18)/$I$25</f>
         <v>0.78125</v>
       </c>
@@ -2143,7 +2172,7 @@
       <c r="I20" s="23">
         <v>2</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="36">
         <f>SUM($I$7:I20)/$I$25</f>
         <v>0.84375</v>
       </c>
@@ -2192,7 +2221,7 @@
       <c r="I22" s="23">
         <v>5</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="36">
         <f>SUM($I$7:I22)/$I$25</f>
         <v>1</v>
       </c>
@@ -2252,10 +2281,6 @@
         <f>SUM(I7:I23)</f>
         <v>32</v>
       </c>
-      <c r="J25">
-        <f>10/I25</f>
-        <v>0.3125</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2266,10 +2291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D55099-A341-4E35-99F5-0CBBC8C2904E}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2277,6 +2302,7 @@
     <col min="1" max="1" width="23.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="43"/>
     <col min="5" max="5" width="7.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2285,11 +2311,11 @@
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="39"/>
+      <c r="E1" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2301,11 +2327,11 @@
       <c r="C2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
@@ -2317,11 +2343,11 @@
       <c r="C3" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
@@ -2331,7 +2357,7 @@
         <v>95</v>
       </c>
       <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="29">
         <v>0.31</v>
       </c>
@@ -2345,7 +2371,7 @@
         <v>86</v>
       </c>
       <c r="C5" s="31"/>
-      <c r="D5" s="28"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
     </row>
@@ -2355,7 +2381,7 @@
         <v>76</v>
       </c>
       <c r="C6" s="32"/>
-      <c r="D6" s="28"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
     </row>
@@ -2365,7 +2391,7 @@
         <v>75</v>
       </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="28"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
     </row>
@@ -2375,7 +2401,7 @@
         <v>87</v>
       </c>
       <c r="C8" s="31"/>
-      <c r="D8" s="28"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
     </row>
@@ -2385,7 +2411,7 @@
         <v>79</v>
       </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="28"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
     </row>
@@ -2395,7 +2421,7 @@
         <v>77</v>
       </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="28"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
     </row>
@@ -2405,7 +2431,7 @@
         <v>78</v>
       </c>
       <c r="C11" s="32"/>
-      <c r="D11" s="28"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
     </row>
@@ -2417,7 +2443,7 @@
       <c r="C12" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
     </row>
@@ -2429,7 +2455,7 @@
       <c r="C13" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
     </row>
@@ -2441,7 +2467,7 @@
       <c r="C14" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
     </row>
@@ -2453,7 +2479,7 @@
       <c r="C15" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
     </row>
@@ -2465,7 +2491,7 @@
       <c r="C16" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="28"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
     </row>
@@ -2475,14 +2501,134 @@
         <v>84</v>
       </c>
       <c r="C17" s="31"/>
-      <c r="D17" s="28"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="42">
+        <v>1</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0.47</v>
+      </c>
+      <c r="F22" s="30">
+        <v>46080</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" ht="132" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
